--- a/results/tabla_1_raw.xlsx
+++ b/results/tabla_1_raw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="348">
   <si>
     <t>Variable</t>
   </si>
@@ -166,6 +166,12 @@
     <t>Time2activetreatment</t>
   </si>
   <si>
+    <t>Time2activetreatment_le1d_yes</t>
+  </si>
+  <si>
+    <t>Time2activetreatment_le3d_yes</t>
+  </si>
+  <si>
     <t>Age</t>
   </si>
   <si>
@@ -496,7 +502,7 @@
     <t>30 (20.134)</t>
   </si>
   <si>
-    <t>114 (76.51)</t>
+    <t>107 (71.812)</t>
   </si>
   <si>
     <t>109 (73.154)</t>
@@ -511,6 +517,12 @@
     <t>1.215 (0.0 - 2.0)</t>
   </si>
   <si>
+    <t>97 (65.101)</t>
+  </si>
+  <si>
+    <t>134 (89.933)</t>
+  </si>
+  <si>
     <t>57.223 (50.0 - 65.0)</t>
   </si>
   <si>
@@ -706,9 +718,6 @@
     <t>14 (21.212)</t>
   </si>
   <si>
-    <t>45 (68.182)</t>
-  </si>
-  <si>
     <t>40 (60.606)</t>
   </si>
   <si>
@@ -718,6 +727,12 @@
     <t>1.545 (0.0 - 3.0)</t>
   </si>
   <si>
+    <t>37 (56.061)</t>
+  </si>
+  <si>
+    <t>57 (86.364)</t>
+  </si>
+  <si>
     <t>57.2 (52.0 - 65.0)</t>
   </si>
   <si>
@@ -862,6 +877,9 @@
     <t>52 (62.651)</t>
   </si>
   <si>
+    <t>67 (80.723)</t>
+  </si>
+  <si>
     <t>69 (83.133)</t>
   </si>
   <si>
@@ -869,6 +887,12 @@
   </si>
   <si>
     <t>0.952 (0.0 - 2.0)</t>
+  </si>
+  <si>
+    <t>60 (72.289)</t>
+  </si>
+  <si>
+    <t>77 (92.771)</t>
   </si>
   <si>
     <t>57.241 (50.0 - 66.5)</t>
@@ -1391,7 +1415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J137"/>
+  <dimension ref="A1:J139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1437,10 +1461,10 @@
         <v>0.001</v>
       </c>
       <c r="G2" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H2" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1451,22 +1475,22 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D3" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E3" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="F3">
         <v>0.031</v>
       </c>
       <c r="G3" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H3" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1477,22 +1501,22 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E4" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="F4">
         <v>0.053</v>
       </c>
       <c r="G4" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H4" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1503,22 +1527,22 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D5" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E5" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F5">
         <v>0.003</v>
       </c>
       <c r="G5" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H5" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1529,22 +1553,22 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D6" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E6" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F6">
         <v>0.975</v>
       </c>
       <c r="G6" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H6" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1555,22 +1579,22 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F7">
         <v>0.08799999999999999</v>
       </c>
       <c r="G7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1581,22 +1605,22 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D8" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E8" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H8" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1607,22 +1631,22 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D9" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E9" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="F9">
         <v>0.593</v>
       </c>
       <c r="G9" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H9" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1633,22 +1657,22 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D10" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E10" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H10" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1659,22 +1683,22 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D11" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E11" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H11" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1685,22 +1709,22 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D12" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E12" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F12">
         <v>0.031</v>
       </c>
       <c r="G12" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H12" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1711,22 +1735,22 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D13" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E13" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F13">
         <v>0.33</v>
       </c>
       <c r="G13" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H13" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1737,22 +1761,22 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D14" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E14" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F14">
         <v>0.908</v>
       </c>
       <c r="G14" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H14" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1763,22 +1787,22 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D15" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E15" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F15">
         <v>0.782</v>
       </c>
       <c r="G15" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H15" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1789,22 +1813,22 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D16" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E16" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="F16">
         <v>0.184</v>
       </c>
       <c r="G16" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H16" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1818,10 +1842,10 @@
         <v>0.001</v>
       </c>
       <c r="G17" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H17" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1832,22 +1856,22 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D18" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E18" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F18">
         <v>0.003</v>
       </c>
       <c r="G18" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H18" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1858,22 +1882,22 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D19" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E19" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="F19">
         <v>0.031</v>
       </c>
       <c r="G19" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H19" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1884,22 +1908,22 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D20" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E20" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F20">
         <v>0.031</v>
       </c>
       <c r="G20" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H20" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1910,22 +1934,22 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D21" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E21" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F21">
         <v>0.782</v>
       </c>
       <c r="G21" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H21" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1936,22 +1960,22 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D22" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E22" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="F22">
         <v>0.184</v>
       </c>
       <c r="G22" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H22" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1962,22 +1986,22 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D23" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E23" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="F23">
         <v>0.053</v>
       </c>
       <c r="G23" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H23" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1988,22 +2012,22 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D24" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E24" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F24">
         <v>0.975</v>
       </c>
       <c r="G24" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H24" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2014,22 +2038,22 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D25" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E25" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H25" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2040,22 +2064,22 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D26" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E26" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="F26">
         <v>0.593</v>
       </c>
       <c r="G26" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H26" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2066,22 +2090,22 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D27" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E27" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H27" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2092,22 +2116,22 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D28" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E28" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H28" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2118,22 +2142,22 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D29" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E29" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F29">
         <v>0.08799999999999999</v>
       </c>
       <c r="G29" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H29" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2144,22 +2168,22 @@
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D30" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E30" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F30">
         <v>0.908</v>
       </c>
       <c r="G30" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H30" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2170,22 +2194,22 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D31" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E31" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F31">
         <v>0.33</v>
       </c>
       <c r="G31" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H31" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2196,22 +2220,22 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D32" t="s">
+        <v>231</v>
+      </c>
+      <c r="E32" t="s">
         <v>227</v>
       </c>
-      <c r="E32" t="s">
-        <v>223</v>
-      </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H32" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2222,22 +2246,22 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D33" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E33" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F33">
         <v>0.22</v>
       </c>
       <c r="G33" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H33" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2251,10 +2275,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H34" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2265,22 +2289,22 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D35" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E35" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H35" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2291,22 +2315,22 @@
         <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D36" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E36" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H36" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2317,22 +2341,22 @@
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D37" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E37" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F37">
         <v>0.931</v>
       </c>
       <c r="G37" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H37" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2343,22 +2367,22 @@
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D38" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E38" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F38">
-        <v>0.052</v>
+        <v>0.011</v>
       </c>
       <c r="G38" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H38" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2369,22 +2393,22 @@
         <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D39" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E39" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="F39">
         <v>0.004</v>
       </c>
       <c r="G39" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H39" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2395,28 +2419,28 @@
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D40" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E40" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="F40">
         <v>0.035</v>
       </c>
       <c r="G40" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="H40" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="I40" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="J40" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2427,22 +2451,22 @@
         <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D41" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E41" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="F41">
         <v>0.053</v>
       </c>
       <c r="G41" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H41" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2453,28 +2477,28 @@
         <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D42" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E42" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="F42">
         <v>0.058</v>
       </c>
       <c r="G42" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="H42" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="I42" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="J42" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2485,28 +2509,22 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D43" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E43" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="F43">
-        <v>0.986</v>
+        <v>0.059</v>
       </c>
       <c r="G43" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="H43" t="s">
-        <v>337</v>
-      </c>
-      <c r="I43" t="s">
-        <v>338</v>
-      </c>
-      <c r="J43" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2517,22 +2535,22 @@
         <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D44" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E44" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="F44">
-        <v>0.372</v>
+        <v>0.309</v>
       </c>
       <c r="G44" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H44" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2543,28 +2561,28 @@
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D45" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E45" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="F45">
-        <v>0.078</v>
+        <v>0.986</v>
       </c>
       <c r="G45" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="H45" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="I45" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="J45" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2574,329 +2592,329 @@
       <c r="B46" t="s">
         <v>53</v>
       </c>
+      <c r="C46" t="s">
+        <v>170</v>
+      </c>
+      <c r="D46" t="s">
+        <v>240</v>
+      </c>
+      <c r="E46" t="s">
+        <v>294</v>
+      </c>
       <c r="F46">
-        <v>0.607</v>
+        <v>0.372</v>
       </c>
       <c r="G46" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H46" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47" t="s">
         <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D47" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="E47" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="F47">
-        <v>0.336</v>
+        <v>0.078</v>
       </c>
       <c r="G47" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="H47" t="s">
-        <v>336</v>
+        <v>345</v>
+      </c>
+      <c r="I47" t="s">
+        <v>346</v>
+      </c>
+      <c r="J47" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B48" t="s">
         <v>55</v>
       </c>
-      <c r="C48" t="s">
-        <v>169</v>
-      </c>
-      <c r="D48" t="s">
-        <v>237</v>
-      </c>
-      <c r="E48" t="s">
-        <v>288</v>
-      </c>
       <c r="F48">
-        <v>0.872</v>
+        <v>0.607</v>
       </c>
       <c r="G48" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H48" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B49" t="s">
         <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="D49" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="E49" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0.336</v>
       </c>
       <c r="G49" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H49" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B50" t="s">
         <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D50" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="E50" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="F50">
-        <v>0.48</v>
+        <v>0.872</v>
       </c>
       <c r="G50" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H50" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B51" t="s">
         <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="D51" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="E51" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="F51">
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H51" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B52" t="s">
         <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D52" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E52" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="F52">
-        <v>0.252</v>
+        <v>0.48</v>
       </c>
       <c r="G52" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="H52" t="s">
-        <v>337</v>
-      </c>
-      <c r="I52" t="s">
-        <v>338</v>
-      </c>
-      <c r="J52" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B53" t="s">
         <v>60</v>
       </c>
+      <c r="C53" t="s">
+        <v>175</v>
+      </c>
+      <c r="D53" t="s">
+        <v>230</v>
+      </c>
+      <c r="E53" t="s">
+        <v>279</v>
+      </c>
       <c r="F53">
-        <v>0.5639999999999999</v>
+        <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H53" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B54" t="s">
         <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D54" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E54" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F54">
-        <v>0.368</v>
+        <v>0.252</v>
       </c>
       <c r="G54" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="H54" t="s">
-        <v>336</v>
+        <v>345</v>
+      </c>
+      <c r="I54" t="s">
+        <v>346</v>
+      </c>
+      <c r="J54" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B55" t="s">
         <v>62</v>
       </c>
-      <c r="C55" t="s">
-        <v>174</v>
-      </c>
-      <c r="D55" t="s">
-        <v>220</v>
-      </c>
-      <c r="E55" t="s">
-        <v>292</v>
-      </c>
       <c r="F55">
-        <v>0.65</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="G55" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H55" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B56" t="s">
         <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D56" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="E56" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F56">
-        <v>0.72</v>
+        <v>0.368</v>
       </c>
       <c r="G56" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H56" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B57" t="s">
         <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D57" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="E57" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="F57">
-        <v>0.5629999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="G57" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="H57" t="s">
-        <v>337</v>
-      </c>
-      <c r="I57" t="s">
-        <v>338</v>
-      </c>
-      <c r="J57" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B58" t="s">
         <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D58" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="E58" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="F58">
-        <v>0.918</v>
+        <v>0.72</v>
       </c>
       <c r="G58" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H58" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2907,22 +2925,28 @@
         <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D59" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E59" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="F59">
-        <v>0.903</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="G59" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="H59" t="s">
-        <v>336</v>
+        <v>345</v>
+      </c>
+      <c r="I59" t="s">
+        <v>346</v>
+      </c>
+      <c r="J59" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2933,22 +2957,22 @@
         <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="D60" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="E60" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="F60">
-        <v>0.621</v>
+        <v>0.918</v>
       </c>
       <c r="G60" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H60" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2959,22 +2983,22 @@
         <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="D61" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E61" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="F61">
-        <v>0.119</v>
+        <v>0.903</v>
       </c>
       <c r="G61" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H61" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2985,22 +3009,22 @@
         <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="D62" t="s">
         <v>223</v>
       </c>
       <c r="E62" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0.621</v>
       </c>
       <c r="G62" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H62" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -3011,22 +3035,22 @@
         <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="D63" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E63" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="F63">
-        <v>0.484</v>
+        <v>0.119</v>
       </c>
       <c r="G63" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H63" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3037,25 +3061,25 @@
         <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D64" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="E64" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="F64">
-        <v>0.904</v>
+        <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H64" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>0</v>
       </c>
@@ -3063,25 +3087,25 @@
         <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="D65" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E65" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="F65">
-        <v>0.329</v>
+        <v>0.484</v>
       </c>
       <c r="G65" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H65" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>0</v>
       </c>
@@ -3089,25 +3113,25 @@
         <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="D66" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="E66" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="F66">
-        <v>0.336</v>
+        <v>0.904</v>
       </c>
       <c r="G66" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H66" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>0</v>
       </c>
@@ -3115,25 +3139,25 @@
         <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="D67" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E67" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0.329</v>
       </c>
       <c r="G67" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H67" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>0</v>
       </c>
@@ -3141,25 +3165,25 @@
         <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D68" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E68" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="F68">
-        <v>0.294</v>
+        <v>0.336</v>
       </c>
       <c r="G68" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H68" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>0</v>
       </c>
@@ -3167,25 +3191,25 @@
         <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D69" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E69" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="F69">
-        <v>0.106</v>
+        <v>1</v>
       </c>
       <c r="G69" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H69" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>0</v>
       </c>
@@ -3193,25 +3217,25 @@
         <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="D70" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="E70" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="F70">
-        <v>0.975</v>
+        <v>0.294</v>
       </c>
       <c r="G70" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H70" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>0</v>
       </c>
@@ -3219,25 +3243,25 @@
         <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D71" t="s">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="E71" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0.106</v>
       </c>
       <c r="G71" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H71" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>0</v>
       </c>
@@ -3245,25 +3269,25 @@
         <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="D72" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="E72" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="F72">
-        <v>0.866</v>
+        <v>0.975</v>
       </c>
       <c r="G72" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H72" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>0</v>
       </c>
@@ -3271,25 +3295,25 @@
         <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D73" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E73" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="F73">
-        <v>0.8129999999999999</v>
+        <v>1</v>
       </c>
       <c r="G73" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H73" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>0</v>
       </c>
@@ -3297,178 +3321,172 @@
         <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="D74" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E74" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F74">
-        <v>0.098</v>
+        <v>0.866</v>
       </c>
       <c r="G74" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H74" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>0</v>
       </c>
       <c r="B75" t="s">
         <v>82</v>
       </c>
+      <c r="C75" t="s">
+        <v>189</v>
+      </c>
+      <c r="D75" t="s">
+        <v>233</v>
+      </c>
+      <c r="E75" t="s">
+        <v>314</v>
+      </c>
       <c r="F75">
-        <v>0.195</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="G75" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H75" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B76" t="s">
         <v>83</v>
       </c>
       <c r="C76" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D76" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="E76" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="F76">
-        <v>0.156</v>
+        <v>0.098</v>
       </c>
       <c r="G76" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H76" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B77" t="s">
         <v>84</v>
       </c>
-      <c r="C77" t="s">
-        <v>188</v>
-      </c>
-      <c r="D77" t="s">
-        <v>251</v>
-      </c>
-      <c r="E77" t="s">
-        <v>275</v>
-      </c>
       <c r="F77">
-        <v>0.994</v>
+        <v>0.195</v>
       </c>
       <c r="G77" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H77" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B78" t="s">
         <v>85</v>
       </c>
       <c r="C78" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="D78" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="E78" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="F78">
-        <v>0.117</v>
+        <v>0.156</v>
       </c>
       <c r="G78" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H78" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B79" t="s">
         <v>86</v>
       </c>
       <c r="C79" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D79" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E79" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="F79">
-        <v>0.064</v>
+        <v>0.994</v>
       </c>
       <c r="G79" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="H79" t="s">
-        <v>337</v>
-      </c>
-      <c r="I79" t="s">
-        <v>338</v>
-      </c>
-      <c r="J79" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B80" t="s">
         <v>87</v>
       </c>
       <c r="C80" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D80" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="E80" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F80">
-        <v>0.03</v>
+        <v>0.117</v>
       </c>
       <c r="G80" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H80" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1">
         <v>0</v>
       </c>
@@ -3476,25 +3494,31 @@
         <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D81" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E81" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="F81">
-        <v>0.186</v>
+        <v>0.064</v>
       </c>
       <c r="G81" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="H81" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>345</v>
+      </c>
+      <c r="I81" t="s">
+        <v>346</v>
+      </c>
+      <c r="J81" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1">
         <v>0</v>
       </c>
@@ -3502,25 +3526,25 @@
         <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D82" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E82" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="F82">
-        <v>0.406</v>
+        <v>0.03</v>
       </c>
       <c r="G82" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H82" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1">
         <v>0</v>
       </c>
@@ -3528,25 +3552,25 @@
         <v>90</v>
       </c>
       <c r="C83" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D83" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E83" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="F83">
-        <v>0.5629999999999999</v>
+        <v>0.186</v>
       </c>
       <c r="G83" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H83" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1">
         <v>0</v>
       </c>
@@ -3554,25 +3578,25 @@
         <v>91</v>
       </c>
       <c r="C84" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D84" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="E84" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="F84">
-        <v>0.754</v>
+        <v>0.406</v>
       </c>
       <c r="G84" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H84" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1">
         <v>0</v>
       </c>
@@ -3580,25 +3604,25 @@
         <v>92</v>
       </c>
       <c r="C85" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D85" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="E85" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F85">
-        <v>0.048</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="G85" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H85" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1">
         <v>0</v>
       </c>
@@ -3606,25 +3630,25 @@
         <v>93</v>
       </c>
       <c r="C86" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="D86" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E86" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="F86">
-        <v>0.58</v>
+        <v>0.754</v>
       </c>
       <c r="G86" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H86" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1">
         <v>0</v>
       </c>
@@ -3632,25 +3656,25 @@
         <v>94</v>
       </c>
       <c r="C87" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D87" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="E87" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>0.048</v>
       </c>
       <c r="G87" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H87" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1">
         <v>0</v>
       </c>
@@ -3658,25 +3682,25 @@
         <v>95</v>
       </c>
       <c r="C88" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D88" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E88" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="F88">
-        <v>0.48</v>
+        <v>0.58</v>
       </c>
       <c r="G88" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H88" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1">
         <v>0</v>
       </c>
@@ -3684,25 +3708,25 @@
         <v>96</v>
       </c>
       <c r="C89" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="D89" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E89" t="s">
-        <v>276</v>
+        <v>321</v>
       </c>
       <c r="F89">
-        <v>0.116</v>
+        <v>1</v>
       </c>
       <c r="G89" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H89" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1">
         <v>0</v>
       </c>
@@ -3710,25 +3734,25 @@
         <v>97</v>
       </c>
       <c r="C90" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="D90" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E90" t="s">
-        <v>274</v>
+        <v>321</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>0.48</v>
       </c>
       <c r="G90" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H90" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1">
         <v>0</v>
       </c>
@@ -3736,25 +3760,25 @@
         <v>98</v>
       </c>
       <c r="C91" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="D91" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E91" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="F91">
-        <v>0.58</v>
+        <v>0.116</v>
       </c>
       <c r="G91" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H91" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1">
         <v>0</v>
       </c>
@@ -3762,10 +3786,10 @@
         <v>99</v>
       </c>
       <c r="C92" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="D92" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="E92" t="s">
         <v>279</v>
@@ -3774,13 +3798,13 @@
         <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H92" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1">
         <v>0</v>
       </c>
@@ -3788,25 +3812,25 @@
         <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="D93" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E93" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="F93">
-        <v>0.33</v>
+        <v>0.58</v>
       </c>
       <c r="G93" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H93" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1">
         <v>0</v>
       </c>
@@ -3814,25 +3838,25 @@
         <v>101</v>
       </c>
       <c r="C94" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="D94" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E94" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="F94">
-        <v>0.387</v>
+        <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H94" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1">
         <v>0</v>
       </c>
@@ -3840,25 +3864,25 @@
         <v>102</v>
       </c>
       <c r="C95" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D95" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="E95" t="s">
-        <v>223</v>
+        <v>284</v>
       </c>
       <c r="F95">
-        <v>0.169</v>
+        <v>0.33</v>
       </c>
       <c r="G95" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H95" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1">
         <v>0</v>
       </c>
@@ -3866,22 +3890,22 @@
         <v>103</v>
       </c>
       <c r="C96" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D96" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="E96" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="F96">
-        <v>0.701</v>
+        <v>0.387</v>
       </c>
       <c r="G96" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H96" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3892,22 +3916,22 @@
         <v>104</v>
       </c>
       <c r="C97" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="D97" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="E97" t="s">
-        <v>315</v>
+        <v>227</v>
       </c>
       <c r="F97">
-        <v>0.191</v>
+        <v>0.169</v>
       </c>
       <c r="G97" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H97" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3917,395 +3941,395 @@
       <c r="B98" t="s">
         <v>105</v>
       </c>
+      <c r="C98" t="s">
+        <v>201</v>
+      </c>
+      <c r="D98" t="s">
+        <v>245</v>
+      </c>
+      <c r="E98" t="s">
+        <v>322</v>
+      </c>
       <c r="F98">
-        <v>0.648</v>
+        <v>0.701</v>
       </c>
       <c r="G98" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H98" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B99" t="s">
         <v>106</v>
       </c>
       <c r="C99" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D99" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E99" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>0.191</v>
       </c>
       <c r="G99" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H99" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B100" t="s">
         <v>107</v>
       </c>
-      <c r="C100" t="s">
-        <v>200</v>
-      </c>
-      <c r="D100" t="s">
-        <v>250</v>
-      </c>
-      <c r="E100" t="s">
-        <v>308</v>
-      </c>
       <c r="F100">
-        <v>0.596</v>
+        <v>0.648</v>
       </c>
       <c r="G100" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H100" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B101" t="s">
         <v>108</v>
       </c>
       <c r="C101" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="D101" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="E101" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="F101">
-        <v>0.592</v>
+        <v>1</v>
       </c>
       <c r="G101" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H101" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B102" t="s">
         <v>109</v>
       </c>
       <c r="C102" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D102" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E102" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>0.596</v>
       </c>
       <c r="G102" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H102" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B103" t="s">
         <v>110</v>
       </c>
+      <c r="C103" t="s">
+        <v>148</v>
+      </c>
+      <c r="D103" t="s">
+        <v>252</v>
+      </c>
+      <c r="E103" t="s">
+        <v>325</v>
+      </c>
       <c r="F103">
-        <v>0.136</v>
+        <v>0.592</v>
       </c>
       <c r="G103" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H103" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B104" t="s">
         <v>111</v>
       </c>
       <c r="C104" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="D104" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="E104" t="s">
-        <v>275</v>
+        <v>326</v>
       </c>
       <c r="F104">
-        <v>0.994</v>
+        <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H104" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B105" t="s">
         <v>112</v>
       </c>
-      <c r="C105" t="s">
-        <v>152</v>
-      </c>
-      <c r="D105" t="s">
-        <v>260</v>
-      </c>
-      <c r="E105" t="s">
-        <v>275</v>
-      </c>
       <c r="F105">
-        <v>0.967</v>
+        <v>0.136</v>
       </c>
       <c r="G105" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H105" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B106" t="s">
         <v>113</v>
       </c>
       <c r="C106" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="D106" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="E106" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="F106">
-        <v>0.866</v>
+        <v>0.994</v>
       </c>
       <c r="G106" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H106" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B107" t="s">
         <v>114</v>
       </c>
       <c r="C107" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="D107" t="s">
-        <v>226</v>
+        <v>265</v>
       </c>
       <c r="E107" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F107">
-        <v>0.331</v>
+        <v>0.967</v>
       </c>
       <c r="G107" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H107" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B108" t="s">
         <v>115</v>
       </c>
       <c r="C108" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="D108" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E108" t="s">
         <v>313</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0.866</v>
       </c>
       <c r="G108" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H108" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B109" t="s">
         <v>116</v>
       </c>
       <c r="C109" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="D109" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="E109" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="F109">
-        <v>0.734</v>
+        <v>0.331</v>
       </c>
       <c r="G109" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H109" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B110" t="s">
         <v>117</v>
       </c>
       <c r="C110" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D110" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E110" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F110">
-        <v>0.051</v>
+        <v>1</v>
       </c>
       <c r="G110" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H110" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B111" t="s">
         <v>118</v>
       </c>
       <c r="C111" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="D111" t="s">
-        <v>223</v>
+        <v>266</v>
       </c>
       <c r="E111" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="F111">
-        <v>0.07000000000000001</v>
+        <v>0.734</v>
       </c>
       <c r="G111" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H111" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B112" t="s">
         <v>119</v>
       </c>
       <c r="C112" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D112" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="E112" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="F112">
-        <v>0.063</v>
+        <v>0.051</v>
       </c>
       <c r="G112" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H112" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B113" t="s">
         <v>120</v>
       </c>
       <c r="C113" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D113" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="E113" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="F113">
-        <v>0.96</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G113" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H113" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -4316,22 +4340,22 @@
         <v>121</v>
       </c>
       <c r="C114" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="D114" t="s">
-        <v>222</v>
+        <v>267</v>
       </c>
       <c r="E114" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="F114">
-        <v>0.895</v>
+        <v>0.063</v>
       </c>
       <c r="G114" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H114" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -4342,22 +4366,22 @@
         <v>122</v>
       </c>
       <c r="C115" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="D115" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E115" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="F115">
-        <v>0.487</v>
+        <v>0.96</v>
       </c>
       <c r="G115" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H115" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -4368,22 +4392,22 @@
         <v>123</v>
       </c>
       <c r="C116" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="D116" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="E116" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F116">
-        <v>0.452</v>
+        <v>0.895</v>
       </c>
       <c r="G116" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H116" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -4394,28 +4418,22 @@
         <v>124</v>
       </c>
       <c r="C117" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D117" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E117" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="F117">
-        <v>0.287</v>
+        <v>0.487</v>
       </c>
       <c r="G117" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="H117" t="s">
-        <v>337</v>
-      </c>
-      <c r="I117" t="s">
-        <v>338</v>
-      </c>
-      <c r="J117" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -4426,28 +4444,22 @@
         <v>125</v>
       </c>
       <c r="C118" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
       <c r="D118" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="E118" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="F118">
-        <v>0.82</v>
+        <v>0.452</v>
       </c>
       <c r="G118" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="H118" t="s">
-        <v>337</v>
-      </c>
-      <c r="I118" t="s">
-        <v>338</v>
-      </c>
-      <c r="J118" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -4458,28 +4470,28 @@
         <v>126</v>
       </c>
       <c r="C119" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D119" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E119" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="F119">
-        <v>0.966</v>
+        <v>0.287</v>
       </c>
       <c r="G119" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="H119" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="I119" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="J119" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -4490,28 +4502,28 @@
         <v>127</v>
       </c>
       <c r="C120" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D120" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E120" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="F120">
-        <v>0.587</v>
+        <v>0.82</v>
       </c>
       <c r="G120" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="H120" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="I120" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="J120" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -4522,28 +4534,28 @@
         <v>128</v>
       </c>
       <c r="C121" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D121" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E121" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="F121">
-        <v>0.914</v>
+        <v>0.966</v>
       </c>
       <c r="G121" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="H121" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="I121" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="J121" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -4554,28 +4566,28 @@
         <v>129</v>
       </c>
       <c r="C122" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D122" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E122" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="F122">
-        <v>0.099</v>
+        <v>0.587</v>
       </c>
       <c r="G122" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="H122" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="I122" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="J122" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -4586,22 +4598,28 @@
         <v>130</v>
       </c>
       <c r="C123" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D123" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E123" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F123">
-        <v>0.224</v>
+        <v>0.914</v>
       </c>
       <c r="G123" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="H123" t="s">
-        <v>336</v>
+        <v>345</v>
+      </c>
+      <c r="I123" t="s">
+        <v>346</v>
+      </c>
+      <c r="J123" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -4612,22 +4630,28 @@
         <v>131</v>
       </c>
       <c r="C124" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="D124" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="E124" t="s">
-        <v>278</v>
+        <v>336</v>
       </c>
       <c r="F124">
-        <v>0.398</v>
+        <v>0.099</v>
       </c>
       <c r="G124" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="H124" t="s">
-        <v>336</v>
+        <v>345</v>
+      </c>
+      <c r="I124" t="s">
+        <v>346</v>
+      </c>
+      <c r="J124" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -4638,22 +4662,22 @@
         <v>132</v>
       </c>
       <c r="C125" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D125" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E125" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="F125">
-        <v>0.004</v>
+        <v>0.224</v>
       </c>
       <c r="G125" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H125" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -4664,22 +4688,22 @@
         <v>133</v>
       </c>
       <c r="C126" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="D126" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="E126" t="s">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="F126">
-        <v>0.067</v>
+        <v>0.398</v>
       </c>
       <c r="G126" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H126" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -4690,22 +4714,22 @@
         <v>134</v>
       </c>
       <c r="C127" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D127" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E127" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="F127">
-        <v>0.5659999999999999</v>
+        <v>0.004</v>
       </c>
       <c r="G127" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H127" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -4716,22 +4740,22 @@
         <v>135</v>
       </c>
       <c r="C128" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D128" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="E128" t="s">
-        <v>293</v>
+        <v>339</v>
       </c>
       <c r="F128">
-        <v>0.157</v>
+        <v>0.067</v>
       </c>
       <c r="G128" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H128" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -4742,22 +4766,22 @@
         <v>136</v>
       </c>
       <c r="C129" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="D129" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E129" t="s">
-        <v>275</v>
+        <v>340</v>
       </c>
       <c r="F129">
-        <v>0.994</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="G129" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H129" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -4768,22 +4792,22 @@
         <v>137</v>
       </c>
       <c r="C130" t="s">
-        <v>152</v>
+        <v>220</v>
       </c>
       <c r="D130" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E130" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="F130">
-        <v>0.967</v>
+        <v>0.157</v>
       </c>
       <c r="G130" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H130" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -4794,22 +4818,22 @@
         <v>138</v>
       </c>
       <c r="C131" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="D131" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="E131" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="F131">
-        <v>0.866</v>
+        <v>0.994</v>
       </c>
       <c r="G131" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H131" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -4820,22 +4844,22 @@
         <v>139</v>
       </c>
       <c r="C132" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="D132" t="s">
-        <v>226</v>
+        <v>265</v>
       </c>
       <c r="E132" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F132">
-        <v>0.331</v>
+        <v>0.967</v>
       </c>
       <c r="G132" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H132" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -4846,22 +4870,22 @@
         <v>140</v>
       </c>
       <c r="C133" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="D133" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E133" t="s">
         <v>313</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>0.866</v>
       </c>
       <c r="G133" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H133" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -4872,22 +4896,22 @@
         <v>141</v>
       </c>
       <c r="C134" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="D134" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="E134" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="F134">
-        <v>0.734</v>
+        <v>0.331</v>
       </c>
       <c r="G134" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -4898,22 +4922,22 @@
         <v>142</v>
       </c>
       <c r="C135" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D135" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E135" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F135">
-        <v>0.051</v>
+        <v>1</v>
       </c>
       <c r="G135" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H135" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -4924,22 +4948,22 @@
         <v>143</v>
       </c>
       <c r="C136" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="D136" t="s">
-        <v>223</v>
+        <v>266</v>
       </c>
       <c r="E136" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="F136">
-        <v>0.07000000000000001</v>
+        <v>0.734</v>
       </c>
       <c r="G136" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H136" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -4950,28 +4974,80 @@
         <v>144</v>
       </c>
       <c r="C137" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D137" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="E137" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>0.051</v>
       </c>
       <c r="G137" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="H137" t="s">
-        <v>337</v>
-      </c>
-      <c r="I137" t="s">
-        <v>338</v>
-      </c>
-      <c r="J137" t="s">
-        <v>339</v>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138" s="1">
+        <v>0</v>
+      </c>
+      <c r="B138" t="s">
+        <v>145</v>
+      </c>
+      <c r="C138" t="s">
+        <v>174</v>
+      </c>
+      <c r="D138" t="s">
+        <v>227</v>
+      </c>
+      <c r="E138" t="s">
+        <v>312</v>
+      </c>
+      <c r="F138">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G138" t="s">
+        <v>342</v>
+      </c>
+      <c r="H138" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" s="1">
+        <v>0</v>
+      </c>
+      <c r="B139" t="s">
+        <v>146</v>
+      </c>
+      <c r="C139" t="s">
+        <v>221</v>
+      </c>
+      <c r="D139" t="s">
+        <v>278</v>
+      </c>
+      <c r="E139" t="s">
+        <v>341</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139" t="s">
+        <v>343</v>
+      </c>
+      <c r="H139" t="s">
+        <v>345</v>
+      </c>
+      <c r="I139" t="s">
+        <v>346</v>
+      </c>
+      <c r="J139" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>
